--- a/biology/Zoologie/Gracixalus_gracilipes/Gracixalus_gracilipes.xlsx
+++ b/biology/Zoologie/Gracixalus_gracilipes/Gracixalus_gracilipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gracixalus gracilipes est une espèce d'amphibiens de la famille des Rhacophoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gracixalus gracilipes est une espèce d'amphibiens de la famille des Rhacophoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre entre 600 et 1 800 m d'altitude[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre entre 600 et 1 800 m d'altitude :
 dans le nord du Viêt Nam ;
 au Laos ;
 dans le nord-ouest de la Thaïlande ;
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bourret, 1937 : Notes herpétologiques sur l'Indochine française. XIV. Les batraciens de la collection du Laboratoire des Sciences Naturelles de l'Université. Descriptions de quinze espèces ou variétés nouvelles. Annexe Bulletin de l'Institut public Hanoï, p. 5-56.</t>
         </is>
